--- a/untitled/Customer.xlsx
+++ b/untitled/Customer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beadlich\Documents\CSSE 333\CSSE-333-Project\untitled\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CAACA0-4E3F-4431-A8A1-345525775342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D8898F-D58F-49F9-9CE1-CA6EA9E5AF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4512" yWindow="1548" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1344" yWindow="1524" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>User1</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Debit</t>
+  </si>
+  <si>
+    <t>Junk Row</t>
   </si>
 </sst>
 </file>
@@ -448,11 +451,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -465,180 +466,186 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1">
-        <v>1234567891234560</v>
-      </c>
-      <c r="J1" s="1">
-        <v>45272</v>
-      </c>
-      <c r="K1">
-        <v>213</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2">
-        <v>2234567891234560</v>
+        <v>1234567891234560</v>
       </c>
       <c r="J2" s="1">
-        <v>45638</v>
+        <v>45272</v>
       </c>
       <c r="K2">
-        <v>423</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I3">
-        <v>1244567891234560</v>
+        <v>2234567891234560</v>
       </c>
       <c r="J3" s="1">
-        <v>46003</v>
+        <v>45638</v>
       </c>
       <c r="K3">
-        <v>454</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4">
-        <v>1234567851234560</v>
+        <v>1244567891234560</v>
       </c>
       <c r="J4" s="1">
-        <v>46368</v>
+        <v>46003</v>
       </c>
       <c r="K4">
-        <v>675</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
         <v>34</v>
       </c>
       <c r="I5">
+        <v>1234567851234560</v>
+      </c>
+      <c r="J5" s="1">
+        <v>46368</v>
+      </c>
+      <c r="K5">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6">
         <v>1234566891234560</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J6" s="1">
         <v>46733</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <v>755</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>